--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3152,28 +3152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3424.706747032543</v>
+        <v>3558.858353783003</v>
       </c>
       <c r="AB2" t="n">
-        <v>4685.834858688659</v>
+        <v>4869.387005395843</v>
       </c>
       <c r="AC2" t="n">
-        <v>4238.625356385766</v>
+        <v>4404.659543828264</v>
       </c>
       <c r="AD2" t="n">
-        <v>3424706.747032543</v>
+        <v>3558858.353783003</v>
       </c>
       <c r="AE2" t="n">
-        <v>4685834.858688659</v>
+        <v>4869387.005395843</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.02112572697959e-07</v>
+        <v>1.299092082693743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.64225260416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4238625.356385767</v>
+        <v>4404659.543828264</v>
       </c>
     </row>
     <row r="3">
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1607.563177213724</v>
+        <v>1692.932381509471</v>
       </c>
       <c r="AB3" t="n">
-        <v>2199.538859745865</v>
+        <v>2316.344771286792</v>
       </c>
       <c r="AC3" t="n">
-        <v>1989.617958043897</v>
+        <v>2095.276077325485</v>
       </c>
       <c r="AD3" t="n">
-        <v>1607563.177213724</v>
+        <v>1692932.381509471</v>
       </c>
       <c r="AE3" t="n">
-        <v>2199538.859745865</v>
+        <v>2316344.771286793</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.109748675410631e-06</v>
+        <v>2.053325597725775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.69303385416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1989617.958043897</v>
+        <v>2095276.077325485</v>
       </c>
     </row>
     <row r="4">
@@ -3364,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1284.107925823394</v>
+        <v>1369.306448409998</v>
       </c>
       <c r="AB4" t="n">
-        <v>1756.97311495504</v>
+        <v>1873.545492251572</v>
       </c>
       <c r="AC4" t="n">
-        <v>1589.290066790984</v>
+        <v>1694.736940008695</v>
       </c>
       <c r="AD4" t="n">
-        <v>1284107.925823394</v>
+        <v>1369306.448409998</v>
       </c>
       <c r="AE4" t="n">
-        <v>1756973.11495504</v>
+        <v>1873545.492251572</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.268004102368482e-06</v>
+        <v>2.346139571152091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.98404947916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1589290.066790984</v>
+        <v>1694736.940008695</v>
       </c>
     </row>
     <row r="5">
@@ -3470,28 +3470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1151.931145459375</v>
+        <v>1224.934156940852</v>
       </c>
       <c r="AB5" t="n">
-        <v>1576.123012832987</v>
+        <v>1676.008953807507</v>
       </c>
       <c r="AC5" t="n">
-        <v>1425.700044590748</v>
+        <v>1516.053011549458</v>
       </c>
       <c r="AD5" t="n">
-        <v>1151931.145459375</v>
+        <v>1224934.156940852</v>
       </c>
       <c r="AE5" t="n">
-        <v>1576123.012832987</v>
+        <v>1676008.953807507</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352593728813209e-06</v>
+        <v>2.502652526859609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2353515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1425700.044590748</v>
+        <v>1516053.011549458</v>
       </c>
     </row>
     <row r="6">
@@ -3576,28 +3576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1058.929572964062</v>
+        <v>1132.017835791559</v>
       </c>
       <c r="AB6" t="n">
-        <v>1448.874158405092</v>
+        <v>1548.876744032261</v>
       </c>
       <c r="AC6" t="n">
-        <v>1310.595642234562</v>
+        <v>1401.054121443984</v>
       </c>
       <c r="AD6" t="n">
-        <v>1058929.572964062</v>
+        <v>1132017.835791559</v>
       </c>
       <c r="AE6" t="n">
-        <v>1448874.158405092</v>
+        <v>1548876.74403226</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40562563589997e-06</v>
+        <v>2.600775439488604e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.81217447916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1310595.642234562</v>
+        <v>1401054.121443984</v>
       </c>
     </row>
     <row r="7">
@@ -3682,28 +3682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>997.891245038477</v>
+        <v>1058.95458896144</v>
       </c>
       <c r="AB7" t="n">
-        <v>1365.358825316328</v>
+        <v>1448.908386396332</v>
       </c>
       <c r="AC7" t="n">
-        <v>1235.050895321284</v>
+        <v>1310.626603554357</v>
       </c>
       <c r="AD7" t="n">
-        <v>997891.245038477</v>
+        <v>1058954.58896144</v>
       </c>
       <c r="AE7" t="n">
-        <v>1365358.825316328</v>
+        <v>1448908.386396332</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.442131755038919e-06</v>
+        <v>2.668321317724409e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.537109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1235050.895321284</v>
+        <v>1310626.603554357</v>
       </c>
     </row>
     <row r="8">
@@ -3788,28 +3788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>947.3495918558383</v>
+        <v>1008.242343578208</v>
       </c>
       <c r="AB8" t="n">
-        <v>1296.205505691471</v>
+        <v>1379.521654996627</v>
       </c>
       <c r="AC8" t="n">
-        <v>1172.497471464129</v>
+        <v>1247.862044414552</v>
       </c>
       <c r="AD8" t="n">
-        <v>947349.5918558383</v>
+        <v>1008242.343578208</v>
       </c>
       <c r="AE8" t="n">
-        <v>1296205.505691471</v>
+        <v>1379521.654996627</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469674734951938e-06</v>
+        <v>2.71928304171306e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.34016927083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1172497.471464129</v>
+        <v>1247862.044414551</v>
       </c>
     </row>
     <row r="9">
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>906.3164931521354</v>
+        <v>967.2092448745058</v>
       </c>
       <c r="AB9" t="n">
-        <v>1240.062209792511</v>
+        <v>1323.378359097667</v>
       </c>
       <c r="AC9" t="n">
-        <v>1121.712412928155</v>
+        <v>1197.076985878578</v>
       </c>
       <c r="AD9" t="n">
-        <v>906316.4931521354</v>
+        <v>967209.2448745058</v>
       </c>
       <c r="AE9" t="n">
-        <v>1240062.209792511</v>
+        <v>1323378.359097667</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.48974843217668e-06</v>
+        <v>2.756424637162415e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.2001953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1121712.412928155</v>
+        <v>1197076.985878578</v>
       </c>
     </row>
     <row r="10">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>902.3838929553887</v>
+        <v>963.2766446777589</v>
       </c>
       <c r="AB10" t="n">
-        <v>1234.681452709246</v>
+        <v>1317.997602014402</v>
       </c>
       <c r="AC10" t="n">
-        <v>1116.845187748977</v>
+        <v>1192.2097606994</v>
       </c>
       <c r="AD10" t="n">
-        <v>902383.8929553886</v>
+        <v>963276.6446777589</v>
       </c>
       <c r="AE10" t="n">
-        <v>1234681.452709246</v>
+        <v>1317997.602014402</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.492082583016766e-06</v>
+        <v>2.760743427330946e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.18391927083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1116845.187748977</v>
+        <v>1192209.7606994</v>
       </c>
     </row>
     <row r="11">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>905.6014285218541</v>
+        <v>966.4941802442244</v>
       </c>
       <c r="AB11" t="n">
-        <v>1239.083826818935</v>
+        <v>1322.399976124091</v>
       </c>
       <c r="AC11" t="n">
-        <v>1120.827405452408</v>
+        <v>1196.191978402831</v>
       </c>
       <c r="AD11" t="n">
-        <v>905601.4285218541</v>
+        <v>966494.1802442244</v>
       </c>
       <c r="AE11" t="n">
-        <v>1239083.826818935</v>
+        <v>1322399.976124091</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.492269315083973e-06</v>
+        <v>2.761088930544428e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.18391927083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1120827.405452408</v>
+        <v>1196191.978402831</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2360.856792785371</v>
+        <v>2466.644950633806</v>
       </c>
       <c r="AB2" t="n">
-        <v>3230.228417540031</v>
+        <v>3374.972442152409</v>
       </c>
       <c r="AC2" t="n">
-        <v>2921.939951023947</v>
+        <v>3052.869809076828</v>
       </c>
       <c r="AD2" t="n">
-        <v>2360856.792785372</v>
+        <v>2466644.950633806</v>
       </c>
       <c r="AE2" t="n">
-        <v>3230228.417540031</v>
+        <v>3374972.442152409</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.635741339799341e-07</v>
+        <v>1.646105576833243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2921939.951023947</v>
+        <v>3052869.809076827</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1277.82077948088</v>
+        <v>1360.081423555329</v>
       </c>
       <c r="AB3" t="n">
-        <v>1748.37076395989</v>
+        <v>1860.923406266041</v>
       </c>
       <c r="AC3" t="n">
-        <v>1581.508712101337</v>
+        <v>1683.319488194413</v>
       </c>
       <c r="AD3" t="n">
-        <v>1277820.77948088</v>
+        <v>1360081.423555329</v>
       </c>
       <c r="AE3" t="n">
-        <v>1748370.76395989</v>
+        <v>1860923.406266041</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243156546074905e-06</v>
+        <v>2.369648236150393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.64485677083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1581508.712101337</v>
+        <v>1683319.488194413</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1055.806949257765</v>
+        <v>1126.218629853476</v>
       </c>
       <c r="AB4" t="n">
-        <v>1444.6016468897</v>
+        <v>1540.942014624866</v>
       </c>
       <c r="AC4" t="n">
-        <v>1306.730893221692</v>
+        <v>1393.876671474769</v>
       </c>
       <c r="AD4" t="n">
-        <v>1055806.949257765</v>
+        <v>1126218.629853476</v>
       </c>
       <c r="AE4" t="n">
-        <v>1444601.6468897</v>
+        <v>1540942.014624865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385137753652414e-06</v>
+        <v>2.64028633009345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.34928385416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1306730.893221692</v>
+        <v>1393876.671474769</v>
       </c>
     </row>
     <row r="5">
@@ -4721,28 +4721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>937.1497206581713</v>
+        <v>1007.646652599903</v>
       </c>
       <c r="AB5" t="n">
-        <v>1282.249591932264</v>
+        <v>1378.706604320078</v>
       </c>
       <c r="AC5" t="n">
-        <v>1159.873490526853</v>
+        <v>1247.124781030641</v>
       </c>
       <c r="AD5" t="n">
-        <v>937149.7206581713</v>
+        <v>1007646.652599903</v>
       </c>
       <c r="AE5" t="n">
-        <v>1282249.591932264</v>
+        <v>1378706.604320078</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.787204152519681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.75032552083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1159873.490526853</v>
+        <v>1247124.781030641</v>
       </c>
     </row>
     <row r="6">
@@ -4827,28 +4827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>868.0742004227468</v>
+        <v>926.8075097403123</v>
       </c>
       <c r="AB6" t="n">
-        <v>1187.737417749278</v>
+        <v>1268.098922688305</v>
       </c>
       <c r="AC6" t="n">
-        <v>1074.381425599222</v>
+        <v>1147.073341294949</v>
       </c>
       <c r="AD6" t="n">
-        <v>868074.2004227468</v>
+        <v>926807.5097403124</v>
       </c>
       <c r="AE6" t="n">
-        <v>1187737.417749278</v>
+        <v>1268098.922688305</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.507705204275447e-06</v>
+        <v>2.873918807109599e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.42643229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1074381.425599222</v>
+        <v>1147073.341294949</v>
       </c>
     </row>
     <row r="7">
@@ -4933,28 +4933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>821.8841911748439</v>
+        <v>880.6175004924095</v>
       </c>
       <c r="AB7" t="n">
-        <v>1124.538209336907</v>
+        <v>1204.899714275934</v>
       </c>
       <c r="AC7" t="n">
-        <v>1017.213860937081</v>
+        <v>1089.905776632809</v>
       </c>
       <c r="AD7" t="n">
-        <v>821884.1911748438</v>
+        <v>880617.5004924095</v>
       </c>
       <c r="AE7" t="n">
-        <v>1124538.209336907</v>
+        <v>1204899.714275934</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.534169728681051e-06</v>
+        <v>2.92436427496021e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1017213.860937081</v>
+        <v>1089905.776632809</v>
       </c>
     </row>
     <row r="8">
@@ -5039,28 +5039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>825.0543129029098</v>
+        <v>883.7876222204753</v>
       </c>
       <c r="AB8" t="n">
-        <v>1128.875709741147</v>
+        <v>1209.237214680174</v>
       </c>
       <c r="AC8" t="n">
-        <v>1021.137396390461</v>
+        <v>1093.829312086188</v>
       </c>
       <c r="AD8" t="n">
-        <v>825054.3129029098</v>
+        <v>883787.6222204753</v>
       </c>
       <c r="AE8" t="n">
-        <v>1128875.709741147</v>
+        <v>1209237.214680174</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.535715102368969e-06</v>
+        <v>2.92730999571061e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.23600260416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1021137.396390461</v>
+        <v>1093829.312086188</v>
       </c>
     </row>
   </sheetData>
@@ -5336,28 +5336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.6372179711194</v>
+        <v>970.7959745548841</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.186842587248</v>
+        <v>1328.285880881707</v>
       </c>
       <c r="AC2" t="n">
-        <v>1110.97041410178</v>
+        <v>1201.516140671298</v>
       </c>
       <c r="AD2" t="n">
-        <v>897637.2179711194</v>
+        <v>970795.9745548841</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228186.842587248</v>
+        <v>1328285.880881706</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.386427175079941e-06</v>
+        <v>2.952727050860407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65299479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1110970.41410178</v>
+        <v>1201516.140671298</v>
       </c>
     </row>
     <row r="3">
@@ -5442,28 +5442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>640.7355836897885</v>
+        <v>703.4308977823621</v>
       </c>
       <c r="AB3" t="n">
-        <v>876.6826928633188</v>
+        <v>962.4651875268269</v>
       </c>
       <c r="AC3" t="n">
-        <v>793.0133270883304</v>
+        <v>870.6088608576405</v>
       </c>
       <c r="AD3" t="n">
-        <v>640735.5836897886</v>
+        <v>703430.8977823621</v>
       </c>
       <c r="AE3" t="n">
-        <v>876682.6928633188</v>
+        <v>962465.1875268269</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.625581551751458e-06</v>
+        <v>3.462063285768619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.791015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>793013.3270883304</v>
+        <v>870608.8608576405</v>
       </c>
     </row>
     <row r="4">
@@ -5548,28 +5548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>645.1000810949985</v>
+        <v>707.7953951875724</v>
       </c>
       <c r="AB4" t="n">
-        <v>882.6543907611634</v>
+        <v>968.4368854246715</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.4150945201353</v>
+        <v>876.0106282894454</v>
       </c>
       <c r="AD4" t="n">
-        <v>645100.0810949985</v>
+        <v>707795.3951875723</v>
       </c>
       <c r="AE4" t="n">
-        <v>882654.3907611634</v>
+        <v>968436.8854246715</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62644375770611e-06</v>
+        <v>3.4638995588102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.78450520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>798415.0945201353</v>
+        <v>876010.6282894454</v>
       </c>
     </row>
   </sheetData>
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1304.635680077748</v>
+        <v>1381.35300105513</v>
       </c>
       <c r="AB2" t="n">
-        <v>1785.060093946448</v>
+        <v>1890.028117037036</v>
       </c>
       <c r="AC2" t="n">
-        <v>1614.696463927776</v>
+        <v>1709.646486218143</v>
       </c>
       <c r="AD2" t="n">
-        <v>1304635.680077748</v>
+        <v>1381353.00105513</v>
       </c>
       <c r="AE2" t="n">
-        <v>1785060.093946448</v>
+        <v>1890028.117037036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.172929699448773e-06</v>
+        <v>2.381452808815707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.306640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1614696.463927776</v>
+        <v>1709646.486218143</v>
       </c>
     </row>
     <row r="3">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>838.2397617300905</v>
+        <v>903.8999458067005</v>
       </c>
       <c r="AB3" t="n">
-        <v>1146.916622527443</v>
+        <v>1236.755783103942</v>
       </c>
       <c r="AC3" t="n">
-        <v>1037.456509781013</v>
+        <v>1118.721546962145</v>
       </c>
       <c r="AD3" t="n">
-        <v>838239.7617300906</v>
+        <v>903899.9458067005</v>
       </c>
       <c r="AE3" t="n">
-        <v>1146916.622527443</v>
+        <v>1236755.783103942</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.492454061139327e-06</v>
+        <v>3.03019773273623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2451171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1037456.509781013</v>
+        <v>1118721.546962145</v>
       </c>
     </row>
     <row r="4">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>706.934765030844</v>
+        <v>761.8790861164175</v>
       </c>
       <c r="AB4" t="n">
-        <v>967.2593332759129</v>
+        <v>1042.436577357565</v>
       </c>
       <c r="AC4" t="n">
-        <v>874.9454600650597</v>
+        <v>942.9478934834837</v>
       </c>
       <c r="AD4" t="n">
-        <v>706934.765030844</v>
+        <v>761879.0861164175</v>
       </c>
       <c r="AE4" t="n">
-        <v>967259.3332759129</v>
+        <v>1042436.577357565</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.596900069010425e-06</v>
+        <v>3.242259239006475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>874945.4600650597</v>
+        <v>942947.8934834837</v>
       </c>
     </row>
     <row r="5">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>707.5299429550987</v>
+        <v>762.3036718400797</v>
       </c>
       <c r="AB5" t="n">
-        <v>968.073681969275</v>
+        <v>1043.01751427608</v>
       </c>
       <c r="AC5" t="n">
-        <v>875.6820884620728</v>
+        <v>943.4733865978459</v>
       </c>
       <c r="AD5" t="n">
-        <v>707529.9429550987</v>
+        <v>762303.6718400797</v>
       </c>
       <c r="AE5" t="n">
-        <v>968073.681969275</v>
+        <v>1043017.51427608</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.600714977491403e-06</v>
+        <v>3.250004822157511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.4833984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>875682.0884620728</v>
+        <v>943473.3865978459</v>
       </c>
     </row>
   </sheetData>
@@ -6460,28 +6460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>645.6680332679221</v>
+        <v>705.9469630498829</v>
       </c>
       <c r="AB2" t="n">
-        <v>883.4314879804388</v>
+        <v>965.9077790268143</v>
       </c>
       <c r="AC2" t="n">
-        <v>799.1180266714657</v>
+        <v>873.7228962565767</v>
       </c>
       <c r="AD2" t="n">
-        <v>645668.033267922</v>
+        <v>705946.9630498829</v>
       </c>
       <c r="AE2" t="n">
-        <v>883431.4879804387</v>
+        <v>965907.7790268143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572675215037554e-06</v>
+        <v>3.502040522610291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58528645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>799118.0266714657</v>
+        <v>873722.8962565768</v>
       </c>
     </row>
     <row r="3">
@@ -6566,28 +6566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>608.9956037751111</v>
+        <v>659.2281347686297</v>
       </c>
       <c r="AB3" t="n">
-        <v>833.2546520749696</v>
+        <v>901.9850170831642</v>
       </c>
       <c r="AC3" t="n">
-        <v>753.7299975611829</v>
+        <v>815.9008329966686</v>
       </c>
       <c r="AD3" t="n">
-        <v>608995.6037751111</v>
+        <v>659228.1347686297</v>
       </c>
       <c r="AE3" t="n">
-        <v>833254.6520749696</v>
+        <v>901985.0170831642</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.623941069022408e-06</v>
+        <v>3.61619956598079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.21907552083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>753729.9975611829</v>
+        <v>815900.8329966685</v>
       </c>
     </row>
   </sheetData>
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2599.01199492531</v>
+        <v>2705.907157382188</v>
       </c>
       <c r="AB2" t="n">
-        <v>3556.08287177391</v>
+        <v>3702.341548929156</v>
       </c>
       <c r="AC2" t="n">
-        <v>3216.695313485331</v>
+        <v>3348.995267768217</v>
       </c>
       <c r="AD2" t="n">
-        <v>2599011.99492531</v>
+        <v>2705907.157382188</v>
       </c>
       <c r="AE2" t="n">
-        <v>3556082.87177391</v>
+        <v>3702341.548929156</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.198266543819183e-07</v>
+        <v>1.550098452673935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.00227864583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3216695.31348533</v>
+        <v>3348995.267768217</v>
       </c>
     </row>
     <row r="3">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1354.124973941934</v>
+        <v>1437.180245380505</v>
       </c>
       <c r="AB3" t="n">
-        <v>1852.773529124983</v>
+        <v>1966.41341564721</v>
       </c>
       <c r="AC3" t="n">
-        <v>1675.947423889274</v>
+        <v>1778.741679136402</v>
       </c>
       <c r="AD3" t="n">
-        <v>1354124.973941934</v>
+        <v>1437180.245380505</v>
       </c>
       <c r="AE3" t="n">
-        <v>1852773.529124983</v>
+        <v>1966413.41564721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.207581210937803e-06</v>
+        <v>2.283250680552757e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.900390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1675947.423889274</v>
+        <v>1778741.679136402</v>
       </c>
     </row>
     <row r="4">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1111.621230515756</v>
+        <v>1182.884612481307</v>
       </c>
       <c r="AB4" t="n">
-        <v>1520.969208859189</v>
+        <v>1618.474911982982</v>
       </c>
       <c r="AC4" t="n">
-        <v>1375.810042259359</v>
+        <v>1464.009937927131</v>
       </c>
       <c r="AD4" t="n">
-        <v>1111621.230515756</v>
+        <v>1182884.612481307</v>
       </c>
       <c r="AE4" t="n">
-        <v>1520969.208859189</v>
+        <v>1618474.911982982</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.354030105415834e-06</v>
+        <v>2.560150929541796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.50553385416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1375810.042259359</v>
+        <v>1464009.937927131</v>
       </c>
     </row>
     <row r="5">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>990.1102684122242</v>
+        <v>1061.288309523203</v>
       </c>
       <c r="AB5" t="n">
-        <v>1354.712549823827</v>
+        <v>1452.101485825422</v>
       </c>
       <c r="AC5" t="n">
-        <v>1225.420685419646</v>
+        <v>1313.514958055478</v>
       </c>
       <c r="AD5" t="n">
-        <v>990110.2684122241</v>
+        <v>1061288.309523203</v>
       </c>
       <c r="AE5" t="n">
-        <v>1354712.549823827</v>
+        <v>1452101.485825422</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432519055397523e-06</v>
+        <v>2.708554984555529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.87565104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1225420.685419646</v>
+        <v>1313514.958055479</v>
       </c>
     </row>
     <row r="6">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>915.6957452731481</v>
+        <v>975.1672377656789</v>
       </c>
       <c r="AB6" t="n">
-        <v>1252.895316327881</v>
+        <v>1334.266836053239</v>
       </c>
       <c r="AC6" t="n">
-        <v>1133.320745787167</v>
+        <v>1206.926281875583</v>
       </c>
       <c r="AD6" t="n">
-        <v>915695.7452731481</v>
+        <v>975167.2377656789</v>
       </c>
       <c r="AE6" t="n">
-        <v>1252895.316327881</v>
+        <v>1334266.836053239</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481909662946977e-06</v>
+        <v>2.801940950881245e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5126953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1133320.745787167</v>
+        <v>1206926.281875583</v>
       </c>
     </row>
     <row r="7">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>857.3946805046571</v>
+        <v>916.6955807965957</v>
       </c>
       <c r="AB7" t="n">
-        <v>1173.125227450181</v>
+        <v>1254.263335400692</v>
       </c>
       <c r="AC7" t="n">
-        <v>1061.163802233933</v>
+        <v>1134.558203039697</v>
       </c>
       <c r="AD7" t="n">
-        <v>857394.6805046571</v>
+        <v>916695.5807965957</v>
       </c>
       <c r="AE7" t="n">
-        <v>1173125.227450181</v>
+        <v>1254263.335400692</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.515602480500093e-06</v>
+        <v>2.865646106204213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.2783203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1061163.802233933</v>
+        <v>1134558.203039696</v>
       </c>
     </row>
     <row r="8">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>838.5789500333716</v>
+        <v>897.8798503253103</v>
       </c>
       <c r="AB8" t="n">
-        <v>1147.380714927924</v>
+        <v>1228.518822878435</v>
       </c>
       <c r="AC8" t="n">
-        <v>1037.87630985415</v>
+        <v>1111.270710659914</v>
       </c>
       <c r="AD8" t="n">
-        <v>838578.9500333716</v>
+        <v>897879.8503253103</v>
       </c>
       <c r="AE8" t="n">
-        <v>1147380.714927924</v>
+        <v>1228518.822878435</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525078585436906e-06</v>
+        <v>2.883563181138798e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.21484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1037876.30985415</v>
+        <v>1111270.710659914</v>
       </c>
     </row>
     <row r="9">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>842.3958010335447</v>
+        <v>901.6967013254836</v>
       </c>
       <c r="AB9" t="n">
-        <v>1152.603098853943</v>
+        <v>1233.741206804454</v>
       </c>
       <c r="AC9" t="n">
-        <v>1042.600276787932</v>
+        <v>1115.994677593696</v>
       </c>
       <c r="AD9" t="n">
-        <v>842395.8010335447</v>
+        <v>901696.7013254835</v>
       </c>
       <c r="AE9" t="n">
-        <v>1152603.098853943</v>
+        <v>1233741.206804454</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.525078585436906e-06</v>
+        <v>2.883563181138798e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.21484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1042600.276787931</v>
+        <v>1115994.677593695</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>581.3918130084292</v>
+        <v>640.1893469172217</v>
       </c>
       <c r="AB2" t="n">
-        <v>795.485927754694</v>
+        <v>875.9353076128273</v>
       </c>
       <c r="AC2" t="n">
-        <v>719.565867281297</v>
+        <v>792.3372712371837</v>
       </c>
       <c r="AD2" t="n">
-        <v>581391.8130084291</v>
+        <v>640189.3469172217</v>
       </c>
       <c r="AE2" t="n">
-        <v>795485.927754694</v>
+        <v>875935.3076128273</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.606583418898069e-06</v>
+        <v>3.683199724350003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.60481770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>719565.867281297</v>
+        <v>792337.2712371837</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.912437252173</v>
+        <v>645.7099711609657</v>
       </c>
       <c r="AB3" t="n">
-        <v>803.0394893977372</v>
+        <v>883.4888692558703</v>
       </c>
       <c r="AC3" t="n">
-        <v>726.3985276026184</v>
+        <v>799.1699315585053</v>
       </c>
       <c r="AD3" t="n">
-        <v>586912.4372521731</v>
+        <v>645709.9711609656</v>
       </c>
       <c r="AE3" t="n">
-        <v>803039.4893977372</v>
+        <v>883488.8692558703</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.607499830117405e-06</v>
+        <v>3.685300658239115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59830729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>726398.5276026184</v>
+        <v>799169.9315585053</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1778.274563821046</v>
+        <v>1869.351637808281</v>
       </c>
       <c r="AB2" t="n">
-        <v>2433.113710156851</v>
+        <v>2557.729380823112</v>
       </c>
       <c r="AC2" t="n">
-        <v>2200.90075255602</v>
+        <v>2313.623278513085</v>
       </c>
       <c r="AD2" t="n">
-        <v>1778274.563821046</v>
+        <v>1869351.637808281</v>
       </c>
       <c r="AE2" t="n">
-        <v>2433113.710156851</v>
+        <v>2557729.380823112</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004786400330057e-06</v>
+        <v>1.969367458564992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2200900.75255602</v>
+        <v>2313623.278513085</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1049.363545226946</v>
+        <v>1128.959898184401</v>
       </c>
       <c r="AB3" t="n">
-        <v>1435.78549723181</v>
+        <v>1544.692738891461</v>
       </c>
       <c r="AC3" t="n">
-        <v>1298.756144513608</v>
+        <v>1397.269431881535</v>
       </c>
       <c r="AD3" t="n">
-        <v>1049363.545226946</v>
+        <v>1128959.898184401</v>
       </c>
       <c r="AE3" t="n">
-        <v>1435785.49723181</v>
+        <v>1544692.738891461</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.357362236357529e-06</v>
+        <v>2.660411224603991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.93196614583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1298756.144513607</v>
+        <v>1397269.431881535</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.566608256696</v>
+        <v>941.8530114020665</v>
       </c>
       <c r="AB4" t="n">
-        <v>1195.25237245562</v>
+        <v>1288.684841822605</v>
       </c>
       <c r="AC4" t="n">
-        <v>1081.179163575695</v>
+        <v>1165.69456919959</v>
       </c>
       <c r="AD4" t="n">
-        <v>873566.608256696</v>
+        <v>941853.0114020664</v>
       </c>
       <c r="AE4" t="n">
-        <v>1195252.37245562</v>
+        <v>1288684.841822605</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.487227171727513e-06</v>
+        <v>2.914944703204299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.89029947916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1081179.163575695</v>
+        <v>1165694.56919959</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>782.1140059083549</v>
+        <v>839.0052078956193</v>
       </c>
       <c r="AB5" t="n">
-        <v>1070.122887318552</v>
+        <v>1147.963939740221</v>
       </c>
       <c r="AC5" t="n">
-        <v>967.9918608797738</v>
+        <v>1038.403872508922</v>
       </c>
       <c r="AD5" t="n">
-        <v>782114.0059083549</v>
+        <v>839005.2078956192</v>
       </c>
       <c r="AE5" t="n">
-        <v>1070122.887318552</v>
+        <v>1147963.939740221</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555294310266263e-06</v>
+        <v>3.048355354056875e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.41341145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>967991.8608797737</v>
+        <v>1038403.872508922</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>765.5427462870844</v>
+        <v>822.4339482743487</v>
       </c>
       <c r="AB6" t="n">
-        <v>1047.449358832351</v>
+        <v>1125.290411254021</v>
       </c>
       <c r="AC6" t="n">
-        <v>947.4822621297993</v>
+        <v>1017.894273758948</v>
       </c>
       <c r="AD6" t="n">
-        <v>765542.7462870843</v>
+        <v>822433.9482743487</v>
       </c>
       <c r="AE6" t="n">
-        <v>1047449.358832351</v>
+        <v>1125290.411254021</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.567434940239549e-06</v>
+        <v>3.072150821021808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.33365885416667</v>
       </c>
       <c r="AH6" t="n">
-        <v>947482.2621297993</v>
+        <v>1017894.273758948</v>
       </c>
     </row>
   </sheetData>
@@ -9026,28 +9026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2147.626594406597</v>
+        <v>2252.268897600049</v>
       </c>
       <c r="AB2" t="n">
-        <v>2938.477453065572</v>
+        <v>3081.65366878763</v>
       </c>
       <c r="AC2" t="n">
-        <v>2658.033289124001</v>
+        <v>2787.544967766511</v>
       </c>
       <c r="AD2" t="n">
-        <v>2147626.594406597</v>
+        <v>2252268.897600049</v>
       </c>
       <c r="AE2" t="n">
-        <v>2938477.453065572</v>
+        <v>3081653.66878763</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.083404377308065e-07</v>
+        <v>1.746468958437963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.470703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2658033.289124001</v>
+        <v>2787544.967766511</v>
       </c>
     </row>
     <row r="3">
@@ -9132,28 +9132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1204.717627448455</v>
+        <v>1274.507639698462</v>
       </c>
       <c r="AB3" t="n">
-        <v>1648.347806265674</v>
+        <v>1743.837579944175</v>
       </c>
       <c r="AC3" t="n">
-        <v>1491.031805106353</v>
+        <v>1577.408168805717</v>
       </c>
       <c r="AD3" t="n">
-        <v>1204717.627448454</v>
+        <v>1274507.639698462</v>
       </c>
       <c r="AE3" t="n">
-        <v>1648347.806265674</v>
+        <v>1743837.579944175</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.279047859827471e-06</v>
+        <v>2.459229261140961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.4072265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1491031.805106353</v>
+        <v>1577408.168805717</v>
       </c>
     </row>
     <row r="4">
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>998.3289344367612</v>
+        <v>1056.558410275335</v>
       </c>
       <c r="AB4" t="n">
-        <v>1365.957691260554</v>
+        <v>1445.62982900606</v>
       </c>
       <c r="AC4" t="n">
-        <v>1235.592606340306</v>
+        <v>1307.660947079929</v>
       </c>
       <c r="AD4" t="n">
-        <v>998328.9344367612</v>
+        <v>1056558.410275335</v>
       </c>
       <c r="AE4" t="n">
-        <v>1365957.691260554</v>
+        <v>1445629.82900606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418185022197787e-06</v>
+        <v>2.726748711945059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.18977864583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1235592.606340307</v>
+        <v>1307660.94707993</v>
       </c>
     </row>
     <row r="5">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>887.9672514948172</v>
+        <v>957.7571742362732</v>
       </c>
       <c r="AB5" t="n">
-        <v>1214.955967845558</v>
+        <v>1310.445619054511</v>
       </c>
       <c r="AC5" t="n">
-        <v>1099.002275475788</v>
+        <v>1185.378528393926</v>
       </c>
       <c r="AD5" t="n">
-        <v>887967.2514948172</v>
+        <v>957757.1742362732</v>
       </c>
       <c r="AE5" t="n">
-        <v>1214955.967845558</v>
+        <v>1310445.619054511</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490629949766914e-06</v>
+        <v>2.866038797402273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.64615885416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1099002.275475788</v>
+        <v>1185378.528393926</v>
       </c>
     </row>
     <row r="6">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>817.2478936905891</v>
+        <v>875.3920286745914</v>
       </c>
       <c r="AB6" t="n">
-        <v>1118.19462257994</v>
+        <v>1197.749993203249</v>
       </c>
       <c r="AC6" t="n">
-        <v>1011.47569719692</v>
+        <v>1083.438414904604</v>
       </c>
       <c r="AD6" t="n">
-        <v>817247.8936905891</v>
+        <v>875392.0286745914</v>
       </c>
       <c r="AE6" t="n">
-        <v>1118194.62257994</v>
+        <v>1197749.993203249</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.536748995177677e-06</v>
+        <v>2.954712028117296e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.3271484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1011475.69719692</v>
+        <v>1083438.414904604</v>
       </c>
     </row>
     <row r="7">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>803.4008606269847</v>
+        <v>861.544995610987</v>
       </c>
       <c r="AB7" t="n">
-        <v>1099.248501054332</v>
+        <v>1178.803871677641</v>
       </c>
       <c r="AC7" t="n">
-        <v>994.3377669186668</v>
+        <v>1066.300484626351</v>
       </c>
       <c r="AD7" t="n">
-        <v>803400.8606269847</v>
+        <v>861544.9956109871</v>
       </c>
       <c r="AE7" t="n">
-        <v>1099248.501054332</v>
+        <v>1178803.871677641</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.545231779428706e-06</v>
+        <v>2.971021903534224e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.27018229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>994337.7669186668</v>
+        <v>1066300.484626351</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3118.604854002525</v>
+        <v>3251.540922981019</v>
       </c>
       <c r="AB2" t="n">
-        <v>4267.012744382528</v>
+        <v>4448.901738684364</v>
       </c>
       <c r="AC2" t="n">
-        <v>3859.775036848498</v>
+        <v>4024.304800816968</v>
       </c>
       <c r="AD2" t="n">
-        <v>3118604.854002526</v>
+        <v>3251540.922981019</v>
       </c>
       <c r="AE2" t="n">
-        <v>4267012.744382528</v>
+        <v>4448901.738684365</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.398176159030381e-07</v>
+        <v>1.378224105906607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.70475260416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3859775.036848498</v>
+        <v>4024304.800816968</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1524.297236471955</v>
+        <v>1608.77663234695</v>
       </c>
       <c r="AB3" t="n">
-        <v>2085.61072618893</v>
+        <v>2201.199162593008</v>
       </c>
       <c r="AC3" t="n">
-        <v>1886.562965654497</v>
+        <v>1991.119803917558</v>
       </c>
       <c r="AD3" t="n">
-        <v>1524297.236471955</v>
+        <v>1608776.63234695</v>
       </c>
       <c r="AE3" t="n">
-        <v>2085610.72618893</v>
+        <v>2201199.162593008</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.141301135740509e-06</v>
+        <v>2.126157452274446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.42122395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1886562.965654497</v>
+        <v>1991119.803917558</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1223.66679256087</v>
+        <v>1296.223925197087</v>
       </c>
       <c r="AB4" t="n">
-        <v>1674.274889950644</v>
+        <v>1773.550759818294</v>
       </c>
       <c r="AC4" t="n">
-        <v>1514.484444313321</v>
+        <v>1604.285564495361</v>
       </c>
       <c r="AD4" t="n">
-        <v>1223666.79256087</v>
+        <v>1296223.925197087</v>
       </c>
       <c r="AE4" t="n">
-        <v>1674274.889950644</v>
+        <v>1773550.759818294</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297057166057203e-06</v>
+        <v>2.416319123216494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.80989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1514484.444313321</v>
+        <v>1604285.564495361</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1102.093685271222</v>
+        <v>1162.558051976621</v>
       </c>
       <c r="AB5" t="n">
-        <v>1507.933201129987</v>
+        <v>1590.66321515591</v>
       </c>
       <c r="AC5" t="n">
-        <v>1364.018172811681</v>
+        <v>1438.852550411273</v>
       </c>
       <c r="AD5" t="n">
-        <v>1102093.685271222</v>
+        <v>1162558.051976621</v>
       </c>
       <c r="AE5" t="n">
-        <v>1507933.201129987</v>
+        <v>1590663.21515591</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378087946783894e-06</v>
+        <v>2.567273321815348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.11490885416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1364018.172811681</v>
+        <v>1438852.550411273</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1012.395939253421</v>
+        <v>1084.867731035067</v>
       </c>
       <c r="AB6" t="n">
-        <v>1385.204787843161</v>
+        <v>1484.363890588613</v>
       </c>
       <c r="AC6" t="n">
-        <v>1253.002787038539</v>
+        <v>1342.69828418864</v>
       </c>
       <c r="AD6" t="n">
-        <v>1012395.939253421</v>
+        <v>1084867.731035067</v>
       </c>
       <c r="AE6" t="n">
-        <v>1385204.787843161</v>
+        <v>1484363.890588613</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42984976954775e-06</v>
+        <v>2.663701671675243e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.712890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1253002.787038539</v>
+        <v>1342698.28418864</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>950.6808274221804</v>
+        <v>1011.059853273008</v>
       </c>
       <c r="AB7" t="n">
-        <v>1300.763449157081</v>
+        <v>1383.376696060806</v>
       </c>
       <c r="AC7" t="n">
-        <v>1176.620411202495</v>
+        <v>1251.349165770149</v>
       </c>
       <c r="AD7" t="n">
-        <v>950680.8274221804</v>
+        <v>1011059.853273008</v>
       </c>
       <c r="AE7" t="n">
-        <v>1300763.449157081</v>
+        <v>1383376.696060806</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466741832317625e-06</v>
+        <v>2.732428786484476e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.4443359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1176620.411202495</v>
+        <v>1251349.165770149</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>902.5209404394888</v>
+        <v>962.8999662903159</v>
       </c>
       <c r="AB8" t="n">
-        <v>1234.8689671231</v>
+        <v>1317.482214026825</v>
       </c>
       <c r="AC8" t="n">
-        <v>1117.014806050351</v>
+        <v>1191.743560618005</v>
       </c>
       <c r="AD8" t="n">
-        <v>902520.9404394887</v>
+        <v>962899.9662903158</v>
       </c>
       <c r="AE8" t="n">
-        <v>1234868.9671231</v>
+        <v>1317482.214026825</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492622743699553e-06</v>
+        <v>2.780642961414424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.26204427083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1117014.806050351</v>
+        <v>1191743.560618005</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>879.9046539096915</v>
+        <v>940.2836797605187</v>
       </c>
       <c r="AB9" t="n">
-        <v>1203.924366132888</v>
+        <v>1286.537613036613</v>
       </c>
       <c r="AC9" t="n">
-        <v>1089.023514347625</v>
+        <v>1163.752268915279</v>
       </c>
       <c r="AD9" t="n">
-        <v>879904.6539096915</v>
+        <v>940283.6797605187</v>
       </c>
       <c r="AE9" t="n">
-        <v>1203924.366132888</v>
+        <v>1286537.613036613</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.502692771037249e-06</v>
+        <v>2.799402658568986e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.19368489583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1089023.514347625</v>
+        <v>1163752.268915279</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>881.9836886224396</v>
+        <v>942.3627144732666</v>
       </c>
       <c r="AB10" t="n">
-        <v>1206.768993147408</v>
+        <v>1289.382240051133</v>
       </c>
       <c r="AC10" t="n">
-        <v>1091.596654152338</v>
+        <v>1166.325408719992</v>
       </c>
       <c r="AD10" t="n">
-        <v>881983.6886224395</v>
+        <v>942362.7144732666</v>
       </c>
       <c r="AE10" t="n">
-        <v>1206768.993147408</v>
+        <v>1289382.240051133</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502692771037249e-06</v>
+        <v>2.799402658568986e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.19368489583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1091596.654152338</v>
+        <v>1166325.408719992</v>
       </c>
     </row>
   </sheetData>
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1445.314817471312</v>
+        <v>1534.193344529613</v>
       </c>
       <c r="AB2" t="n">
-        <v>1977.543496053845</v>
+        <v>2099.151017818892</v>
       </c>
       <c r="AC2" t="n">
-        <v>1788.809520290194</v>
+        <v>1898.810990855214</v>
       </c>
       <c r="AD2" t="n">
-        <v>1445314.817471312</v>
+        <v>1534193.344529613</v>
       </c>
       <c r="AE2" t="n">
-        <v>1977543.496053845</v>
+        <v>2099151.017818892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.113247682571636e-06</v>
+        <v>2.231502035135047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.88606770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1788809.520290194</v>
+        <v>1898810.990855214</v>
       </c>
     </row>
     <row r="3">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>909.3926838215065</v>
+        <v>975.9449925555685</v>
       </c>
       <c r="AB3" t="n">
-        <v>1244.271189578298</v>
+        <v>1335.330994468885</v>
       </c>
       <c r="AC3" t="n">
-        <v>1125.519693590528</v>
+        <v>1207.888878505596</v>
       </c>
       <c r="AD3" t="n">
-        <v>909392.6838215064</v>
+        <v>975944.9925555686</v>
       </c>
       <c r="AE3" t="n">
-        <v>1244271.189578298</v>
+        <v>1335330.994468885</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.444045352287681e-06</v>
+        <v>2.894585089109234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.47623697916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1125519.693590528</v>
+        <v>1207888.878505596</v>
       </c>
     </row>
     <row r="4">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>758.7827727534043</v>
+        <v>825.4203328334871</v>
       </c>
       <c r="AB4" t="n">
-        <v>1038.200064814586</v>
+        <v>1129.376514357822</v>
       </c>
       <c r="AC4" t="n">
-        <v>939.1157077516239</v>
+        <v>1021.590404917404</v>
       </c>
       <c r="AD4" t="n">
-        <v>758782.7727534043</v>
+        <v>825420.3328334871</v>
       </c>
       <c r="AE4" t="n">
-        <v>1038200.064814586</v>
+        <v>1129376.514357822</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563169166866867e-06</v>
+        <v>3.133368460346477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.6005859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>939115.7077516238</v>
+        <v>1021590.404917404</v>
       </c>
     </row>
     <row r="5">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>725.9255311006513</v>
+        <v>781.4426972001761</v>
       </c>
       <c r="AB5" t="n">
-        <v>993.2433372260923</v>
+        <v>1069.204373127971</v>
       </c>
       <c r="AC5" t="n">
-        <v>898.4495871470126</v>
+        <v>967.1610083943996</v>
       </c>
       <c r="AD5" t="n">
-        <v>725925.5311006512</v>
+        <v>781442.6972001761</v>
       </c>
       <c r="AE5" t="n">
-        <v>993243.3372260923</v>
+        <v>1069204.373127971</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589335679983833e-06</v>
+        <v>3.185819166678076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.42643229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>898449.5871470126</v>
+        <v>967161.0083943995</v>
       </c>
     </row>
   </sheetData>
@@ -11613,28 +11613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1032.857046288446</v>
+        <v>1096.72862983823</v>
       </c>
       <c r="AB2" t="n">
-        <v>1413.200577168817</v>
+        <v>1500.592495597026</v>
       </c>
       <c r="AC2" t="n">
-        <v>1278.326697523292</v>
+        <v>1357.37805391204</v>
       </c>
       <c r="AD2" t="n">
-        <v>1032857.046288446</v>
+        <v>1096728.62983823</v>
       </c>
       <c r="AE2" t="n">
-        <v>1413200.577168817</v>
+        <v>1500592.495597026</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.307797685872681e-06</v>
+        <v>2.735994545788698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.19986979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1278326.697523292</v>
+        <v>1357378.05391204</v>
       </c>
     </row>
     <row r="3">
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>684.5409978724721</v>
+        <v>748.3271510591327</v>
       </c>
       <c r="AB3" t="n">
-        <v>936.619193106547</v>
+        <v>1023.894221943009</v>
       </c>
       <c r="AC3" t="n">
-        <v>847.2295718697512</v>
+        <v>926.1751944453337</v>
       </c>
       <c r="AD3" t="n">
-        <v>684540.997872472</v>
+        <v>748327.1510591327</v>
       </c>
       <c r="AE3" t="n">
-        <v>936619.193106547</v>
+        <v>1023894.221943009</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.597547363741804e-06</v>
+        <v>3.34216899223219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.8056640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>847229.5718697512</v>
+        <v>926175.1944453337</v>
       </c>
     </row>
     <row r="4">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.2871600256116</v>
+        <v>729.0733132122723</v>
       </c>
       <c r="AB4" t="n">
-        <v>910.2752427450959</v>
+        <v>997.550271581558</v>
       </c>
       <c r="AC4" t="n">
-        <v>823.3998511568303</v>
+        <v>902.3454737324128</v>
       </c>
       <c r="AD4" t="n">
-        <v>665287.1600256115</v>
+        <v>729073.3132122722</v>
       </c>
       <c r="AE4" t="n">
-        <v>910275.2427450959</v>
+        <v>997550.271581558</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618758906777611e-06</v>
+        <v>3.386544866788816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>823399.8511568303</v>
+        <v>902345.4737324128</v>
       </c>
     </row>
   </sheetData>
@@ -21087,28 +21087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>775.7569404837481</v>
+        <v>837.2640003550915</v>
       </c>
       <c r="AB2" t="n">
-        <v>1061.424869950671</v>
+        <v>1145.581542766616</v>
       </c>
       <c r="AC2" t="n">
-        <v>960.12397008174</v>
+        <v>1036.248848158763</v>
       </c>
       <c r="AD2" t="n">
-        <v>775756.9404837481</v>
+        <v>837264.0003550915</v>
       </c>
       <c r="AE2" t="n">
-        <v>1061424.869950671</v>
+        <v>1145581.542766616</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474307482263648e-06</v>
+        <v>3.204931826861917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11263020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>960123.9700817401</v>
+        <v>1036248.848158763</v>
       </c>
     </row>
     <row r="3">
@@ -21193,28 +21193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>619.6701210954019</v>
+        <v>681.1770914581945</v>
       </c>
       <c r="AB3" t="n">
-        <v>847.8599975990591</v>
+        <v>932.016547945455</v>
       </c>
       <c r="AC3" t="n">
-        <v>766.9414294071847</v>
+        <v>843.0661967029807</v>
       </c>
       <c r="AD3" t="n">
-        <v>619670.1210954019</v>
+        <v>681177.0914581944</v>
       </c>
       <c r="AE3" t="n">
-        <v>847859.997599059</v>
+        <v>932016.5479454551</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.628562305902782e-06</v>
+        <v>3.540259565258096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.96516927083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>766941.4294071847</v>
+        <v>843066.1967029808</v>
       </c>
     </row>
   </sheetData>
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.15224787063</v>
+        <v>623.1412605708528</v>
       </c>
       <c r="AB2" t="n">
-        <v>774.6344824109933</v>
+        <v>852.6093637652369</v>
       </c>
       <c r="AC2" t="n">
-        <v>700.7044546160118</v>
+        <v>771.2375227322398</v>
       </c>
       <c r="AD2" t="n">
-        <v>566152.24787063</v>
+        <v>623141.2605708528</v>
       </c>
       <c r="AE2" t="n">
-        <v>774634.4824109933</v>
+        <v>852609.3637652369</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.562716708018479e-06</v>
+        <v>3.716963826369954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.26399739583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>700704.4546160118</v>
+        <v>771237.5227322398</v>
       </c>
     </row>
   </sheetData>
@@ -21787,28 +21787,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1951.005928887763</v>
+        <v>2054.629894743574</v>
       </c>
       <c r="AB2" t="n">
-        <v>2669.452384211141</v>
+        <v>2811.23526586179</v>
       </c>
       <c r="AC2" t="n">
-        <v>2414.683595261982</v>
+        <v>2542.934917681417</v>
       </c>
       <c r="AD2" t="n">
-        <v>1951005.928887763</v>
+        <v>2054629.894743574</v>
       </c>
       <c r="AE2" t="n">
-        <v>2669452.384211141</v>
+        <v>2811235.26586179</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.550263608759632e-07</v>
+        <v>1.853303331554988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.7822265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2414683.595261982</v>
+        <v>2542934.917681416</v>
       </c>
     </row>
     <row r="3">
@@ -21893,28 +21893,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1131.281668388875</v>
+        <v>1200.335954849776</v>
       </c>
       <c r="AB3" t="n">
-        <v>1547.869487314495</v>
+        <v>1642.352608510409</v>
       </c>
       <c r="AC3" t="n">
-        <v>1400.142995893668</v>
+        <v>1485.608780610539</v>
       </c>
       <c r="AD3" t="n">
-        <v>1131281.668388875</v>
+        <v>1200335.954849776</v>
       </c>
       <c r="AE3" t="n">
-        <v>1547869.487314495</v>
+        <v>1642352.608510409</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.318011220247875e-06</v>
+        <v>2.55770383476304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1400142.995893668</v>
+        <v>1485608.780610539</v>
       </c>
     </row>
     <row r="4">
@@ -21999,28 +21999,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>942.6599957561203</v>
+        <v>1000.276366770439</v>
       </c>
       <c r="AB4" t="n">
-        <v>1289.788993417458</v>
+        <v>1368.622254094143</v>
       </c>
       <c r="AC4" t="n">
-        <v>1166.693342115917</v>
+        <v>1238.002867036796</v>
       </c>
       <c r="AD4" t="n">
-        <v>942659.9957561203</v>
+        <v>1000276.366770439</v>
       </c>
       <c r="AE4" t="n">
-        <v>1289788.993417458</v>
+        <v>1368622.254094143</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451644007596677e-06</v>
+        <v>2.817028708027643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1166693.342115917</v>
+        <v>1238002.867036795</v>
       </c>
     </row>
     <row r="5">
@@ -22105,28 +22105,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>835.8159023215725</v>
+        <v>893.5175246819122</v>
       </c>
       <c r="AB5" t="n">
-        <v>1143.600191151579</v>
+        <v>1222.550096480913</v>
       </c>
       <c r="AC5" t="n">
-        <v>1034.45659396102</v>
+        <v>1105.871631132611</v>
       </c>
       <c r="AD5" t="n">
-        <v>835815.9023215725</v>
+        <v>893517.5246819122</v>
       </c>
       <c r="AE5" t="n">
-        <v>1143600.191151579</v>
+        <v>1222550.096480913</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522350228168851e-06</v>
+        <v>2.954239657920041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.52897135416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1034456.59396102</v>
+        <v>1105871.631132611</v>
       </c>
     </row>
     <row r="6">
@@ -22211,28 +22211,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>783.8487694415375</v>
+        <v>841.3797996012846</v>
       </c>
       <c r="AB6" t="n">
-        <v>1072.496467317018</v>
+        <v>1151.212960871505</v>
       </c>
       <c r="AC6" t="n">
-        <v>970.1389097345267</v>
+        <v>1041.342811623466</v>
       </c>
       <c r="AD6" t="n">
-        <v>783848.7694415374</v>
+        <v>841379.7996012847</v>
       </c>
       <c r="AE6" t="n">
-        <v>1072496.467317018</v>
+        <v>1151212.960871505</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.555044469436207e-06</v>
+        <v>3.017685389625162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.3076171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>970138.9097345266</v>
+        <v>1041342.811623466</v>
       </c>
     </row>
     <row r="7">
@@ -22317,28 +22317,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>786.0756667064838</v>
+        <v>843.6066968662311</v>
       </c>
       <c r="AB7" t="n">
-        <v>1075.543406398691</v>
+        <v>1154.259899953179</v>
       </c>
       <c r="AC7" t="n">
-        <v>972.8950532266509</v>
+        <v>1044.098955115591</v>
       </c>
       <c r="AD7" t="n">
-        <v>786075.6667064838</v>
+        <v>843606.6968662312</v>
       </c>
       <c r="AE7" t="n">
-        <v>1075543.406398691</v>
+        <v>1154259.899953179</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.556718572151704e-06</v>
+        <v>3.020934116851026e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29622395833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>972895.0532266509</v>
+        <v>1044098.955115591</v>
       </c>
     </row>
   </sheetData>
@@ -22614,28 +22614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2837.765865623177</v>
+        <v>2969.450321659403</v>
       </c>
       <c r="AB2" t="n">
-        <v>3882.756450740137</v>
+        <v>4062.932932997098</v>
       </c>
       <c r="AC2" t="n">
-        <v>3512.191624564257</v>
+        <v>3675.172316233887</v>
       </c>
       <c r="AD2" t="n">
-        <v>2837765.865623177</v>
+        <v>2969450.321659403</v>
       </c>
       <c r="AE2" t="n">
-        <v>3882756.450740137</v>
+        <v>4062932.932997098</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.794692933114512e-07</v>
+        <v>1.462590124904144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.81608072916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3512191.624564257</v>
+        <v>3675172.316233887</v>
       </c>
     </row>
     <row r="3">
@@ -22720,28 +22720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1443.608748651545</v>
+        <v>1515.529822384842</v>
       </c>
       <c r="AB3" t="n">
-        <v>1975.209177428194</v>
+        <v>2073.61476344393</v>
       </c>
       <c r="AC3" t="n">
-        <v>1786.697985757938</v>
+        <v>1875.71188075744</v>
       </c>
       <c r="AD3" t="n">
-        <v>1443608.748651545</v>
+        <v>1515529.822384842</v>
       </c>
       <c r="AE3" t="n">
-        <v>1975209.177428194</v>
+        <v>2073614.763443931</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.174043595915422e-06</v>
+        <v>2.202966280169718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15592447916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1786697.985757938</v>
+        <v>1875711.88075744</v>
       </c>
     </row>
     <row r="4">
@@ -22826,28 +22826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1167.637734383127</v>
+        <v>1239.558718607874</v>
       </c>
       <c r="AB4" t="n">
-        <v>1597.613460724262</v>
+        <v>1696.018924270451</v>
       </c>
       <c r="AC4" t="n">
-        <v>1445.139474297313</v>
+        <v>1534.153258515589</v>
       </c>
       <c r="AD4" t="n">
-        <v>1167637.734383127</v>
+        <v>1239558.718607874</v>
       </c>
       <c r="AE4" t="n">
-        <v>1597613.460724263</v>
+        <v>1696018.924270451</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.32502188245773e-06</v>
+        <v>2.486260763822323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.65690104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1445139.474297313</v>
+        <v>1534153.258515589</v>
       </c>
     </row>
     <row r="5">
@@ -22932,28 +22932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1040.25268738813</v>
+        <v>1112.088330758305</v>
       </c>
       <c r="AB5" t="n">
-        <v>1423.319619594062</v>
+        <v>1521.608316018053</v>
       </c>
       <c r="AC5" t="n">
-        <v>1287.479992741637</v>
+        <v>1376.388153927973</v>
       </c>
       <c r="AD5" t="n">
-        <v>1040252.68738813</v>
+        <v>1112088.330758305</v>
       </c>
       <c r="AE5" t="n">
-        <v>1423319.619594062</v>
+        <v>1521608.316018053</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404544072352421e-06</v>
+        <v>2.63547558299321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.99609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1287479.992741636</v>
+        <v>1376388.153927973</v>
       </c>
     </row>
     <row r="6">
@@ -23038,28 +23038,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>963.7642992592216</v>
+        <v>1035.599942629397</v>
       </c>
       <c r="AB6" t="n">
-        <v>1318.664832526561</v>
+        <v>1416.953528950552</v>
       </c>
       <c r="AC6" t="n">
-        <v>1192.813311667942</v>
+        <v>1281.721472854279</v>
       </c>
       <c r="AD6" t="n">
-        <v>963764.2992592216</v>
+        <v>1035599.942629397</v>
       </c>
       <c r="AE6" t="n">
-        <v>1318664.832526561</v>
+        <v>1416953.528950552</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455218116986986e-06</v>
+        <v>2.730559966569886e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.61360677083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1192813.311667942</v>
+        <v>1281721.472854279</v>
       </c>
     </row>
     <row r="7">
@@ -23144,28 +23144,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>905.3667787444926</v>
+        <v>965.2156809190944</v>
       </c>
       <c r="AB7" t="n">
-        <v>1238.762768641531</v>
+        <v>1320.650676944039</v>
       </c>
       <c r="AC7" t="n">
-        <v>1120.536988616848</v>
+        <v>1194.609629881366</v>
       </c>
       <c r="AD7" t="n">
-        <v>905366.7787444927</v>
+        <v>965215.6809190945</v>
       </c>
       <c r="AE7" t="n">
-        <v>1238762.768641531</v>
+        <v>1320650.676944039</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.490519136844773e-06</v>
+        <v>2.796798525915435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.36295572916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1120536.988616848</v>
+        <v>1194609.629881366</v>
       </c>
     </row>
     <row r="8">
@@ -23250,28 +23250,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>863.5038268412244</v>
+        <v>923.3527290158263</v>
       </c>
       <c r="AB8" t="n">
-        <v>1181.484030984387</v>
+        <v>1263.371939286895</v>
       </c>
       <c r="AC8" t="n">
-        <v>1068.724853290488</v>
+        <v>1142.797494555006</v>
       </c>
       <c r="AD8" t="n">
-        <v>863503.8268412245</v>
+        <v>923352.7290158262</v>
       </c>
       <c r="AE8" t="n">
-        <v>1181484.030984387</v>
+        <v>1263371.939286895</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.511111398428482e-06</v>
+        <v>2.835437685533672e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1068724.853290488</v>
+        <v>1142797.494555006</v>
       </c>
     </row>
     <row r="9">
@@ -23356,28 +23356,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>863.4047656886634</v>
+        <v>923.2536678632652</v>
       </c>
       <c r="AB9" t="n">
-        <v>1181.348491145183</v>
+        <v>1263.236399447691</v>
       </c>
       <c r="AC9" t="n">
-        <v>1068.602249183307</v>
+        <v>1142.674890447825</v>
       </c>
       <c r="AD9" t="n">
-        <v>863404.7656886633</v>
+        <v>923253.6678632651</v>
       </c>
       <c r="AE9" t="n">
-        <v>1181348.491145183</v>
+        <v>1263236.399447691</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.512060350575196e-06</v>
+        <v>2.837218291967692e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.21484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1068602.249183307</v>
+        <v>1142674.890447824</v>
       </c>
     </row>
   </sheetData>
@@ -23653,28 +23653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>550.0919659432182</v>
+        <v>614.2133166858519</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.6600961482756</v>
+        <v>840.3937570686928</v>
       </c>
       <c r="AC2" t="n">
-        <v>680.8272729369629</v>
+        <v>760.1877563941019</v>
       </c>
       <c r="AD2" t="n">
-        <v>550091.9659432182</v>
+        <v>614213.3166858519</v>
       </c>
       <c r="AE2" t="n">
-        <v>752660.0961482755</v>
+        <v>840393.7570686928</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448585325738654e-06</v>
+        <v>3.622801967210425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.701171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>680827.2729369629</v>
+        <v>760187.7563941019</v>
       </c>
     </row>
   </sheetData>
@@ -23950,28 +23950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1159.571323849602</v>
+        <v>1235.268952670002</v>
       </c>
       <c r="AB2" t="n">
-        <v>1586.576641967377</v>
+        <v>1690.149477263139</v>
       </c>
       <c r="AC2" t="n">
-        <v>1435.155994032312</v>
+        <v>1528.843983292834</v>
       </c>
       <c r="AD2" t="n">
-        <v>1159571.323849602</v>
+        <v>1235268.952670002</v>
       </c>
       <c r="AE2" t="n">
-        <v>1586576.641967377</v>
+        <v>1690149.477263139</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.237838192487657e-06</v>
+        <v>2.549059713617961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.74186197916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1435155.994032312</v>
+        <v>1528843.983292834</v>
       </c>
     </row>
     <row r="3">
@@ -24056,28 +24056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>766.8617975414679</v>
+        <v>820.9316219217336</v>
       </c>
       <c r="AB3" t="n">
-        <v>1049.254142951034</v>
+        <v>1123.234862060412</v>
       </c>
       <c r="AC3" t="n">
-        <v>949.1148001852249</v>
+        <v>1016.034903295396</v>
       </c>
       <c r="AD3" t="n">
-        <v>766861.7975414679</v>
+        <v>820931.6219217336</v>
       </c>
       <c r="AE3" t="n">
-        <v>1049254.142951034</v>
+        <v>1123234.862060412</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543848850002337e-06</v>
+        <v>3.17922239864611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.01888020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>949114.8001852249</v>
+        <v>1016034.903295396</v>
       </c>
     </row>
     <row r="4">
@@ -24162,28 +24162,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>684.063040967629</v>
+        <v>748.861381959115</v>
       </c>
       <c r="AB4" t="n">
-        <v>935.9652313833702</v>
+        <v>1024.625180228969</v>
       </c>
       <c r="AC4" t="n">
-        <v>846.6380233355934</v>
+        <v>926.8363910983878</v>
       </c>
       <c r="AD4" t="n">
-        <v>684063.0409676291</v>
+        <v>748861.3819591149</v>
       </c>
       <c r="AE4" t="n">
-        <v>935965.2313833702</v>
+        <v>1024625.180228969</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.610213866232467e-06</v>
+        <v>3.315886778766627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.56477864583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>846638.0233355934</v>
+        <v>926836.3910983878</v>
       </c>
     </row>
   </sheetData>
@@ -24459,28 +24459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1605.716113615615</v>
+        <v>1695.635980045211</v>
       </c>
       <c r="AB2" t="n">
-        <v>2197.011625844237</v>
+        <v>2320.043954077742</v>
       </c>
       <c r="AC2" t="n">
-        <v>1987.331919798846</v>
+        <v>2098.622215302702</v>
       </c>
       <c r="AD2" t="n">
-        <v>1605716.113615615</v>
+        <v>1695635.980045211</v>
       </c>
       <c r="AE2" t="n">
-        <v>2197011.625844237</v>
+        <v>2320043.954077742</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.05754244457547e-06</v>
+        <v>2.095186288728892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.48665364583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1987331.919798846</v>
+        <v>2098622.215302702</v>
       </c>
     </row>
     <row r="3">
@@ -24565,28 +24565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.4362101110081</v>
+        <v>1048.004054083649</v>
       </c>
       <c r="AB3" t="n">
-        <v>1341.476076466772</v>
+        <v>1433.925381473036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1213.447482502281</v>
+        <v>1297.073555592162</v>
       </c>
       <c r="AD3" t="n">
-        <v>980436.2101110081</v>
+        <v>1048004.054083649</v>
       </c>
       <c r="AE3" t="n">
-        <v>1341476.076466772</v>
+        <v>1433925.381473036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39885395475625e-06</v>
+        <v>2.771387229867656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.70735677083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1213447.482502281</v>
+        <v>1297073.555592162</v>
       </c>
     </row>
     <row r="4">
@@ -24671,28 +24671,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>817.1062322764371</v>
+        <v>884.5887353945068</v>
       </c>
       <c r="AB4" t="n">
-        <v>1118.000795183437</v>
+        <v>1210.333333067503</v>
       </c>
       <c r="AC4" t="n">
-        <v>1011.3003684151</v>
+        <v>1094.820818473042</v>
       </c>
       <c r="AD4" t="n">
-        <v>817106.2322764371</v>
+        <v>884588.7353945068</v>
       </c>
       <c r="AE4" t="n">
-        <v>1118000.795183437</v>
+        <v>1210333.333067503</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.523927718657991e-06</v>
+        <v>3.019181383710663e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.7470703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1011300.3684151</v>
+        <v>1094820.818473042</v>
       </c>
     </row>
     <row r="5">
@@ -24777,28 +24777,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>746.0422465403137</v>
+        <v>802.2635318381609</v>
       </c>
       <c r="AB5" t="n">
-        <v>1020.767914777488</v>
+        <v>1097.692357630058</v>
       </c>
       <c r="AC5" t="n">
-        <v>923.3472576478903</v>
+        <v>992.930139638745</v>
       </c>
       <c r="AD5" t="n">
-        <v>746042.2465403137</v>
+        <v>802263.5318381609</v>
       </c>
       <c r="AE5" t="n">
-        <v>1020767.914777488</v>
+        <v>1097692.357630058</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577157019626633e-06</v>
+        <v>3.124638429071042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.38411458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>923347.2576478902</v>
+        <v>992930.139638745</v>
       </c>
     </row>
     <row r="6">
@@ -24883,28 +24883,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>745.9607996274746</v>
+        <v>802.1820849253218</v>
       </c>
       <c r="AB6" t="n">
-        <v>1020.656475518157</v>
+        <v>1097.580918370728</v>
       </c>
       <c r="AC6" t="n">
-        <v>923.246453995064</v>
+        <v>992.8293359859188</v>
       </c>
       <c r="AD6" t="n">
-        <v>745960.7996274745</v>
+        <v>802182.0849253217</v>
       </c>
       <c r="AE6" t="n">
-        <v>1020656.475518157</v>
+        <v>1097580.918370728</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.579370714562947e-06</v>
+        <v>3.129024166307202e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.36946614583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>923246.453995064</v>
+        <v>992829.3359859188</v>
       </c>
     </row>
   </sheetData>
